--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -1,43 +1,448 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="23325" windowHeight="10800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+  <si>
+    <t>Moeda</t>
+  </si>
+  <si>
+    <t>Valor(R$)</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>5,03</t>
+  </si>
+  <si>
+    <t>21:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>5,49</t>
+  </si>
+  <si>
+    <t>Iene</t>
+  </si>
+  <si>
+    <t>0,038</t>
+  </si>
+  <si>
+    <t>Yuan Chinês</t>
+  </si>
+  <si>
+    <t>0,73</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +451,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,147 +1056,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Moeda</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Valor(R$)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Dollar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;span class="DFlfde SwHCTb" data-precision="2" data-value="5.0341"&gt;5,03&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&lt;div aria-level="3" class="gsrt vk_bk FzvWSb YwPhnf" role="heading"&gt;18:16&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>&lt;div class="vk_bk dDoNo FzvWSb"&gt; quarta-feira, &lt;span&gt;5 de abril de 2023&lt;/span&gt; &lt;/div&gt;</t>
-        </is>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;span class="DFlfde SwHCTb" data-precision="2" data-value="5.488930935"&gt;5,49&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;div aria-level="3" class="gsrt vk_bk FzvWSb YwPhnf" role="heading"&gt;18:16&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>&lt;div class="vk_bk dDoNo FzvWSb"&gt; quarta-feira, &lt;span&gt;5 de abril de 2023&lt;/span&gt; &lt;/div&gt;</t>
-        </is>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Iene</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;span class="DFlfde SwHCTb" data-precision="3" data-value="0.038314283389999995"&gt;0,038&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;div aria-level="3" class="gsrt vk_bk FzvWSb YwPhnf" role="heading"&gt;18:16&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>&lt;div class="vk_bk dDoNo FzvWSb"&gt; quarta-feira, &lt;span&gt;5 de abril de 2023&lt;/span&gt; &lt;/div&gt;</t>
-        </is>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yuan Chinês</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;span class="DFlfde SwHCTb" data-precision="2" data-value="0.7317537555"&gt;0,73&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;div aria-level="3" class="gsrt vk_bk FzvWSb YwPhnf" role="heading"&gt;18:16&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>&lt;div class="vk_bk dDoNo FzvWSb"&gt; quarta-feira, &lt;span&gt;5 de abril de 2023&lt;/span&gt; &lt;/div&gt;</t>
-        </is>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,21 +454,6 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,22 +466,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -509,22 +491,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,22 +516,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,22 +541,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -593,24 +566,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,24 +591,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -653,24 +616,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -683,24 +641,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -713,26 +666,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,26 +691,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,26 +716,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -809,26 +741,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -841,27 +766,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -875,27 +791,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -909,27 +816,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -943,27 +841,1518 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>21:20</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0,037</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1691,17 +1691,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2350,6 +2350,106 @@
         </is>
       </c>
       <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2450,6 +2450,106 @@
         </is>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2550,6 +2550,106 @@
         </is>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2341,17 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2650,6 +2650,106 @@
         </is>
       </c>
       <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1691,17 +1691,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2750,6 +2750,106 @@
         </is>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2850,6 +2850,106 @@
         </is>
       </c>
       <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 29 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 29 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 29 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 29 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> terça-feira, 25 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1066,17 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2341,17 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2566,17 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2591,17 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2950,6 +2950,106 @@
         </is>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
